--- a/docs/CareConnect-VitalSigns-Observation-1.xlsx
+++ b/docs/CareConnect-VitalSigns-Observation-1.xlsx
@@ -1015,7 +1015,7 @@
     <t>118227000</t>
   </si>
   <si>
-    <t>Vital signs</t>
+    <t>Vital signs finding (finding)</t>
   </si>
   <si>
     <t>Observation.code.text</t>
